--- a/biology/Médecine/1548_en_santé_et_médecine/1548_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1548_en_santé_et_médecine/1548_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1548_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1548_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1548 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1548_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1548_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Pedro Simón,  qui écrira en 1627, l'expédition d'Alonzo Pérez de Tolosa découvre l'usage du curare[1].
-Nicolas Houël (1524 ?-1587) est reçu maître apothicaire[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Pedro Simón,  qui écrira en 1627, l'expédition d'Alonzo Pérez de Tolosa découvre l'usage du curare.
+Nicolas Houël (1524 ?-1587) est reçu maître apothicaire.</t>
         </is>
       </c>
     </row>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1548_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1548_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,11 +556,13 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>William Turner (1510-1568), The Names of Herbs in Greek, Latin, English, Dutch and French with the Commune Names that Herbaries and Apotecaries Use[3],[4].
-Auger Ferrier († 1588), médecin et astrologue français, fait paraître des Remèdes préservatifs et curatifs de la peste qui seront « plusieurs fois réédité[s] jusqu'au XVIIIe siècle[5] ».
-Sous le titre de Sur la faculté des simples médicaments[6], Hervé Fayard fait imprimer chez Guillaume de la Nouaille à Limoges sa traduction française du De simplicium medicamentorum, version latine, par Theodoricus Gerardus Gaudanus, du traité des Simples de Galien, publiée en 1530 à Paris chez Simon de Colines[7],[8].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>William Turner (1510-1568), The Names of Herbs in Greek, Latin, English, Dutch and French with the Commune Names that Herbaries and Apotecaries Use,.
+Auger Ferrier († 1588), médecin et astrologue français, fait paraître des Remèdes préservatifs et curatifs de la peste qui seront « plusieurs fois réédité[s] jusqu'au XVIIIe siècle ».
+Sous le titre de Sur la faculté des simples médicaments, Hervé Fayard fait imprimer chez Guillaume de la Nouaille à Limoges sa traduction française du De simplicium medicamentorum, version latine, par Theodoricus Gerardus Gaudanus, du traité des Simples de Galien, publiée en 1530 à Paris chez Simon de Colines,.</t>
         </is>
       </c>
     </row>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1548_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1548_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,10 +590,12 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Jacques de Cahaignes (mort en 1612), médecin français[9].
-1548 ? : Urbain Hémard (mort en 1592), médecin et odontologue français[10].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Jacques de Cahaignes (mort en 1612), médecin français.
+1548 ? : Urbain Hémard (mort en 1592), médecin et odontologue français.</t>
         </is>
       </c>
     </row>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1548_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1548_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,9 +623,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Walther Hermann Ryff (né en 1500), chirurgien strasbourgeois ou zurichois[11].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Walther Hermann Ryff (né en 1500), chirurgien strasbourgeois ou zurichois.
 </t>
         </is>
       </c>
